--- a/DATA_goal/Junction_Flooding_384.xlsx
+++ b/DATA_goal/Junction_Flooding_384.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.96527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.99</v>
+        <v>89.87</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.33</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.97222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.46</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.42</v>
+        <v>44.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.97916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.7</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.98611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_384.xlsx
+++ b/DATA_goal/Junction_Flooding_384.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.96527777778</v>
+        <v>45065.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.79</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.79</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.95</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.83</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.11</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.85</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.5</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.57</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.65</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.28</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.97</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.74</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.39</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.1</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.89</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.98</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>89.87</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.48</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.9</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.77</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.31</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.92</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.45</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.13</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.95</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.24</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.81</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.83</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.33</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.06</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.29</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.97222222222</v>
+        <v>45065.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.08</v>
+        <v>11.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.02</v>
+        <v>7.614</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.637</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.16</v>
+        <v>23.392</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.89</v>
+        <v>19.364</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.57</v>
+        <v>8.696</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.46</v>
+        <v>36.481</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.02</v>
+        <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.68</v>
+        <v>5.702</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.62</v>
+        <v>8.653</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.73</v>
+        <v>9.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.16</v>
+        <v>9.766</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.47</v>
+        <v>2.78</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.38</v>
+        <v>8.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.35</v>
+        <v>12.154</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.26</v>
+        <v>7.483</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.578</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.902</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.19</v>
+        <v>124.311</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.58</v>
+        <v>24.305</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.12</v>
+        <v>7.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.94</v>
+        <v>16.011</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.42</v>
+        <v>8.590999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.976</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.79</v>
+        <v>17.178</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.69</v>
+        <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.66</v>
+        <v>6.448</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.28</v>
+        <v>7.535</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.08</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.91</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.69</v>
+        <v>33.032</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.65</v>
+        <v>4.38</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.83</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.97916666666</v>
+        <v>45065.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.07</v>
+        <v>15.374</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.52</v>
+        <v>11.097</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.289</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.47</v>
+        <v>33.024</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.62</v>
+        <v>27.321</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.34</v>
+        <v>12.098</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.99</v>
+        <v>46.426</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.4</v>
+        <v>18.615</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.64</v>
+        <v>8.146000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.41</v>
+        <v>12.239</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.43</v>
+        <v>13.335</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.91</v>
+        <v>13.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.82</v>
+        <v>3.864</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.89</v>
+        <v>12.031</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.6</v>
+        <v>17.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.39</v>
+        <v>10.243</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.074</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.78</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.04000000000001</v>
+        <v>175.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.62</v>
+        <v>33.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.51</v>
+        <v>11.105</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.81</v>
+        <v>22.437</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.89</v>
+        <v>12.007</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.45</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.57</v>
+        <v>22.398</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.92</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.67</v>
+        <v>8.795999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.4</v>
+        <v>10.317</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.79</v>
+        <v>13.926</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.45</v>
+        <v>41.814</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.51</v>
+        <v>6.197</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.58</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.98611111111</v>
+        <v>45065.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.31</v>
+        <v>17.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.49</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.11</v>
+        <v>51.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.98</v>
+        <v>42.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.07</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.59</v>
+        <v>72.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.2</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.33</v>
+        <v>12.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.03</v>
+        <v>19.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.67</v>
+        <v>20.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.89</v>
+        <v>21.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.95</v>
+        <v>26.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.62</v>
+        <v>278.82</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.44</v>
+        <v>52.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.79</v>
+        <v>35.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.59</v>
+        <v>18.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.6</v>
+        <v>35.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.17</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.22</v>
+        <v>13.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.47</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.8</v>
+        <v>21.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.99304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.39</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_384.xlsx
+++ b/DATA_goal/Junction_Flooding_384.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45065.50694444445</v>
+        <v>44781.96527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.542</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.221</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.493</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.284</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.769</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.341</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.881</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.828</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.728</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.673</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.849</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.779</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.617</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.202</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.642</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.025</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.109</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.266</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.407</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.944</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.145</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.485</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.902</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.071</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.391</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45065.51388888889</v>
+        <v>44781.97222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.05</v>
+        <v>4.085</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.614</v>
+        <v>3.023</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.637</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.392</v>
+        <v>9.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.364</v>
+        <v>6.891</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.696</v>
+        <v>2.574</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.481</v>
+        <v>13.464</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.38</v>
+        <v>5.02</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.702</v>
+        <v>2.676</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.653</v>
+        <v>2.619</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.42</v>
+        <v>3.731</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.766</v>
+        <v>4.162</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.78</v>
+        <v>1.473</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.647</v>
+        <v>3.384</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.154</v>
+        <v>4.348</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.483</v>
+        <v>3.262</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.578</v>
+        <v>0.386</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.902</v>
+        <v>0.472</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>124.311</v>
+        <v>44.191</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.305</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.982</v>
+        <v>3.123</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.011</v>
+        <v>5.945</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.590999999999999</v>
+        <v>3.417</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.976</v>
+        <v>0.466</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.178</v>
+        <v>7.787</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.05</v>
+        <v>2.689</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.448</v>
+        <v>2.661</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.535</v>
+        <v>3.283</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.771000000000001</v>
+        <v>4.085</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.032</v>
+        <v>12.687</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.38</v>
+        <v>1.648</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.978999999999999</v>
+        <v>3.835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45065.52083333334</v>
+        <v>44781.97916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.374</v>
+        <v>6.07</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.097</v>
+        <v>4.524</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.289</v>
+        <v>0.755</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.024</v>
+        <v>13.472</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.321</v>
+        <v>10.618</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.098</v>
+        <v>4.341</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.426</v>
+        <v>17.994</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.615</v>
+        <v>7.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.146000000000001</v>
+        <v>3.644</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.239</v>
+        <v>4.407</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.335</v>
+        <v>5.433</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.92</v>
+        <v>5.905</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.864</v>
+        <v>1.815</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.031</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.03</v>
+        <v>6.602</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.243</v>
+        <v>4.393</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.074</v>
+        <v>0.257</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.412</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.792</v>
+        <v>67.041</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.62</v>
+        <v>13.617</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.105</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.437</v>
+        <v>8.813000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.007</v>
+        <v>4.887</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.651</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.398</v>
+        <v>9.568</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>3.922</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.795999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.317</v>
+        <v>4.399</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.926</v>
+        <v>5.793</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.814</v>
+        <v>16.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.197</v>
+        <v>2.506</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.884</v>
+        <v>5.575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45065.52777777778</v>
+        <v>44781.98611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.02</v>
+        <v>1.783</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.71</v>
+        <v>1.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.485</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.94</v>
+        <v>4.114</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.96</v>
+        <v>2.985</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.9</v>
+        <v>1.073</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>72.16</v>
+        <v>8.585000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.09</v>
+        <v>2.196</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.91</v>
+        <v>1.333</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.31</v>
+        <v>1.029</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.94</v>
+        <v>1.668</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.98</v>
+        <v>1.889</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>0.681</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.504</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.76</v>
+        <v>1.954</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.81</v>
+        <v>1.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.156</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.227</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.82</v>
+        <v>15.616</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.55</v>
+        <v>4.443</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.35</v>
+        <v>1.388</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.34</v>
+        <v>2.792</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.75</v>
+        <v>1.595</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.203</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.22</v>
+        <v>4.599</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.33</v>
+        <v>1.169</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.59</v>
+        <v>1.219</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.97</v>
+        <v>1.474</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.94</v>
+        <v>1.801</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.469</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.33</v>
+        <v>8.224</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.69</v>
+        <v>1.681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.99304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_384.xlsx
+++ b/DATA_goal/Junction_Flooding_384.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.96527777778</v>
+        <v>45065.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.794</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.793</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.946</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.826</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.11</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.852</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.497</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.57</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.646</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.28</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.967</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.742</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.899</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.391</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.101000000000001</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.893</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.984</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>89.866</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.483</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.899</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.767</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.309</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.916</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.451</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.134</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.948</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.236</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.806</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.833</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.334</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.055</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.294</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.97222222222</v>
+        <v>45065.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.085</v>
+        <v>11.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.023</v>
+        <v>7.614</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.637</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.16</v>
+        <v>23.392</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.891</v>
+        <v>19.364</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.574</v>
+        <v>8.696</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.464</v>
+        <v>36.481</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.02</v>
+        <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.676</v>
+        <v>5.702</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.619</v>
+        <v>8.653</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.731</v>
+        <v>9.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.162</v>
+        <v>9.766</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.473</v>
+        <v>2.78</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.384</v>
+        <v>8.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.348</v>
+        <v>12.154</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.262</v>
+        <v>7.483</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.386</v>
+        <v>1.578</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.472</v>
+        <v>0.902</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.191</v>
+        <v>124.311</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.579000000000001</v>
+        <v>24.305</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.123</v>
+        <v>7.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.945</v>
+        <v>16.011</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.417</v>
+        <v>8.590999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.466</v>
+        <v>0.976</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.787</v>
+        <v>17.178</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.689</v>
+        <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.661</v>
+        <v>6.448</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.283</v>
+        <v>7.535</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.085</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.915</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.687</v>
+        <v>33.032</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.648</v>
+        <v>4.38</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.835</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.97916666666</v>
+        <v>45065.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.07</v>
+        <v>15.374</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.524</v>
+        <v>11.097</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.755</v>
+        <v>1.289</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.472</v>
+        <v>33.024</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.618</v>
+        <v>27.321</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.341</v>
+        <v>12.098</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.994</v>
+        <v>46.426</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.4</v>
+        <v>18.615</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.644</v>
+        <v>8.146000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.407</v>
+        <v>12.239</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.433</v>
+        <v>13.335</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.905</v>
+        <v>13.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.815</v>
+        <v>3.864</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.888</v>
+        <v>12.031</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.602</v>
+        <v>17.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.393</v>
+        <v>10.243</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.257</v>
+        <v>1.074</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.412</v>
+        <v>0.78</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.041</v>
+        <v>175.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.617</v>
+        <v>33.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.511</v>
+        <v>11.105</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.813000000000001</v>
+        <v>22.437</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.887</v>
+        <v>12.007</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.651</v>
+        <v>1.45</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.568</v>
+        <v>22.398</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.922</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.67</v>
+        <v>8.795999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.399</v>
+        <v>10.317</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.793</v>
+        <v>13.926</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.618</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.45</v>
+        <v>41.814</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.506</v>
+        <v>6.197</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.575</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.98611111111</v>
+        <v>45065.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.783</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.31</v>
+        <v>17.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.485</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.114</v>
+        <v>51.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.985</v>
+        <v>42.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.073</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.585000000000001</v>
+        <v>72.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.196</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.333</v>
+        <v>12.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.029</v>
+        <v>19.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.668</v>
+        <v>20.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.889</v>
+        <v>21.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.681</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.504</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.954</v>
+        <v>26.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.156</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.227</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.616</v>
+        <v>278.82</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.443</v>
+        <v>52.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.388</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.792</v>
+        <v>35.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.595</v>
+        <v>18.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.203</v>
+        <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.599</v>
+        <v>35.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.169</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.219</v>
+        <v>13.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.474</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.801</v>
+        <v>21.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.469</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.224</v>
+        <v>65.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.758</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.681</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.99304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.39</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>
